--- a/biology/Zoologie/Auroraceratops/Auroraceratops.xlsx
+++ b/biology/Zoologie/Auroraceratops/Auroraceratops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Auroraceratops rugosus
 Auroraceratops est un genre éteint de dinosaures cératopsiens assez primitifs, découvert en Chine dans des sédiments de l'Aptien (Crétacé supérieur), soit il y a environ entre ≃121,4 et ≃113,0 millions d'années. 
-Une seule espèce est rattachée au genre : Auroraceratops rugosus, décrite par H. You et ses collègues en 2005[1].
+Une seule espèce est rattachée au genre : Auroraceratops rugosus, décrite par H. You et ses collègues en 2005.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre Auroraceratops, qui signifie littéralement « face cornue de l'aube », combine le mot latin « aurora », « aube », et les mots du grec κέρας (kéras) signifiant « corne » et ὤψ (ops) signifiant « visage ». L'épithète spécifique latin rugosus, « rugueux »  fait référence à l'aspect rugueux des os de la surface du crâne et de la mâchoire, en particulier l'aspect ridé de l'os lacrymal, distinctif de cet animal[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre Auroraceratops, qui signifie littéralement « face cornue de l'aube », combine le mot latin « aurora », « aube », et les mots du grec κέρας (kéras) signifiant « corne » et ὤψ (ops) signifiant « visage ». L'épithète spécifique latin rugosus, « rugueux »  fait référence à l'aspect rugueux des os de la surface du crâne et de la mâchoire, en particulier l'aspect ridé de l'os lacrymal, distinctif de cet animal.
 </t>
         </is>
       </c>
@@ -544,13 +558,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le spécimen holotype, référencé IG-2004-VD-001, est constitué d'un crâne presque complet d'un jeune adulte.
-C'est un cératopsien de petite taille. Thomas Holtz estime sa longueur totale à environ  1,50 mètre[2].
+C'est un cératopsien de petite taille. Thomas Holtz estime sa longueur totale à environ  1,50 mètre.
 Auroraceratops a un museau court et large à la différence de la plupart des autres néoceratopsiens où ils ont longs et étroits. Son crâne, d'une longueur d'environ de 20 centimètres, est également assez large et plat.
-Ses prémaxillaires portent au moins deux paires de dents striées ressemblant à des crocs[1].
-Les zones rugueuses de la tête, comme les contours des yeux, l'os jugal et les parties de la mandibule qui lui font face devaient être couvertes de kératine. Ces protubérances devaient avoir un rôle lors des parades nuptiales à la fois de démonstration et de reconnaissance intra-spécifique et aussi pour des combats à coups de tête entre mâles[1].
+Ses prémaxillaires portent au moins deux paires de dents striées ressemblant à des crocs.
+Les zones rugueuses de la tête, comme les contours des yeux, l'os jugal et les parties de la mandibule qui lui font face devaient être couvertes de kératine. Ces protubérances devaient avoir un rôle lors des parades nuptiales à la fois de démonstration et de reconnaissance intra-spécifique et aussi pour des combats à coups de tête entre mâles.
 </t>
         </is>
       </c>
@@ -579,9 +595,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2014, une analyse phylogénétique des cératopsiens, conduite par Andrew Farke et al.[3], ne retient plus l'attribution à la famille des Archaeoceratopsidae, mais confirme Auroraceratops comme un néocératopsien assez basal, placé en groupe frère de Yamaceratops.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2014, une analyse phylogénétique des cératopsiens, conduite par Andrew Farke et al., ne retient plus l'attribution à la famille des Archaeoceratopsidae, mais confirme Auroraceratops comme un néocératopsien assez basal, placé en groupe frère de Yamaceratops.
 </t>
         </is>
       </c>
